--- a/app/libfiles/VE2标准IO.xlsx
+++ b/app/libfiles/VE2标准IO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="615" windowWidth="14805" windowHeight="7140" tabRatio="866" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="615" windowWidth="14805" windowHeight="7140" tabRatio="866" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="机器信息" sheetId="6" r:id="rId1"/>
@@ -2055,6 +2055,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2062,16 +2063,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4566,9 +4566,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4601,10 +4601,10 @@
       <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="A3" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>66</v>
       </c>
       <c r="C3" t="s">
@@ -4840,12 +4840,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="16" t="s">
         <v>32</v>
       </c>
@@ -4980,12 +4980,12 @@
       <c r="D13" s="21"/>
     </row>
     <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="37"/>
     </row>
     <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
@@ -4996,12 +4996,12 @@
       <c r="D15" s="21"/>
     </row>
     <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="37"/>
     </row>
     <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
@@ -5076,12 +5076,12 @@
       <c r="D24" s="21"/>
     </row>
     <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="37"/>
     </row>
     <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -5092,12 +5092,12 @@
       <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="37"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="38"/>
       <c r="E27" s="24" t="s">
         <v>57</v>
       </c>
@@ -5145,7 +5145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
       <selection sqref="A1:D1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
@@ -5159,7 +5159,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="34" t="s">
         <v>443</v>
       </c>
     </row>
@@ -5219,12 +5219,12 @@
       <c r="D3" s="21"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
     </row>
     <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
@@ -5523,12 +5523,12 @@
       <c r="D31" s="21"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
     </row>
     <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
@@ -5826,12 +5826,12 @@
       <c r="D59" s="21"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" s="40" t="s">
+      <c r="A60" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="B60" s="40"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="40"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="44"/>
     </row>
     <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
@@ -6130,12 +6130,12 @@
       <c r="D87" s="21"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A88" s="40" t="s">
+      <c r="A88" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="B88" s="40"/>
-      <c r="C88" s="40"/>
-      <c r="D88" s="40"/>
+      <c r="B88" s="44"/>
+      <c r="C88" s="44"/>
+      <c r="D88" s="44"/>
     </row>
     <row r="89" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="22" t="s">
@@ -6434,12 +6434,12 @@
       <c r="D115" s="21"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116" s="40" t="s">
+      <c r="A116" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="B116" s="40"/>
-      <c r="C116" s="40"/>
-      <c r="D116" s="40"/>
+      <c r="B116" s="44"/>
+      <c r="C116" s="44"/>
+      <c r="D116" s="44"/>
     </row>
     <row r="117" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="22" t="s">
@@ -6738,12 +6738,12 @@
       <c r="D143" s="21"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A144" s="39" t="s">
+      <c r="A144" s="45" t="s">
         <v>247</v>
       </c>
-      <c r="B144" s="39"/>
-      <c r="C144" s="39"/>
-      <c r="D144" s="39"/>
+      <c r="B144" s="45"/>
+      <c r="C144" s="45"/>
+      <c r="D144" s="45"/>
     </row>
     <row r="145" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A145" s="22" t="s">
@@ -6757,10 +6757,10 @@
       <c r="A146" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="B146" s="40" t="s">
+      <c r="B146" s="44" t="s">
         <v>270</v>
       </c>
-      <c r="C146" s="41" t="s">
+      <c r="C146" s="46" t="s">
         <v>399</v>
       </c>
       <c r="D146" s="3"/>
@@ -6769,18 +6769,18 @@
       <c r="A147" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="B147" s="40"/>
-      <c r="C147" s="41"/>
+      <c r="B147" s="44"/>
+      <c r="C147" s="46"/>
       <c r="D147" s="3"/>
     </row>
     <row r="148" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="B148" s="40" t="s">
+      <c r="B148" s="44" t="s">
         <v>271</v>
       </c>
-      <c r="C148" s="41" t="s">
+      <c r="C148" s="46" t="s">
         <v>400</v>
       </c>
       <c r="D148" s="3"/>
@@ -6789,18 +6789,18 @@
       <c r="A149" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="B149" s="40"/>
-      <c r="C149" s="41"/>
+      <c r="B149" s="44"/>
+      <c r="C149" s="46"/>
       <c r="D149" s="3"/>
     </row>
     <row r="150" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="B150" s="40" t="s">
+      <c r="B150" s="44" t="s">
         <v>272</v>
       </c>
-      <c r="C150" s="41" t="s">
+      <c r="C150" s="46" t="s">
         <v>401</v>
       </c>
       <c r="D150" s="3"/>
@@ -6809,8 +6809,8 @@
       <c r="A151" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="B151" s="40"/>
-      <c r="C151" s="41"/>
+      <c r="B151" s="44"/>
+      <c r="C151" s="46"/>
       <c r="D151" s="3"/>
     </row>
     <row r="152" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -6825,10 +6825,10 @@
       <c r="A153" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="B153" s="40" t="s">
+      <c r="B153" s="44" t="s">
         <v>273</v>
       </c>
-      <c r="C153" s="41" t="s">
+      <c r="C153" s="46" t="s">
         <v>402</v>
       </c>
       <c r="D153" s="3"/>
@@ -6837,18 +6837,18 @@
       <c r="A154" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="B154" s="40"/>
-      <c r="C154" s="41"/>
+      <c r="B154" s="44"/>
+      <c r="C154" s="46"/>
       <c r="D154" s="3"/>
     </row>
     <row r="155" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="B155" s="40" t="s">
+      <c r="B155" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="C155" s="41" t="s">
+      <c r="C155" s="46" t="s">
         <v>403</v>
       </c>
       <c r="D155" s="3"/>
@@ -6857,18 +6857,18 @@
       <c r="A156" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="B156" s="40"/>
-      <c r="C156" s="41"/>
+      <c r="B156" s="44"/>
+      <c r="C156" s="46"/>
       <c r="D156" s="3"/>
     </row>
     <row r="157" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="B157" s="40" t="s">
+      <c r="B157" s="44" t="s">
         <v>275</v>
       </c>
-      <c r="C157" s="41" t="s">
+      <c r="C157" s="46" t="s">
         <v>404</v>
       </c>
       <c r="D157" s="3"/>
@@ -6877,8 +6877,8 @@
       <c r="A158" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="B158" s="40"/>
-      <c r="C158" s="41"/>
+      <c r="B158" s="44"/>
+      <c r="C158" s="46"/>
       <c r="D158" s="3"/>
     </row>
     <row r="159" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -6893,10 +6893,10 @@
       <c r="A160" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="B160" s="40" t="s">
+      <c r="B160" s="44" t="s">
         <v>276</v>
       </c>
-      <c r="C160" s="41" t="s">
+      <c r="C160" s="46" t="s">
         <v>405</v>
       </c>
       <c r="D160" s="3"/>
@@ -6905,18 +6905,18 @@
       <c r="A161" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="B161" s="40"/>
-      <c r="C161" s="41"/>
+      <c r="B161" s="44"/>
+      <c r="C161" s="46"/>
       <c r="D161" s="3"/>
     </row>
     <row r="162" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="B162" s="40" t="s">
+      <c r="B162" s="44" t="s">
         <v>277</v>
       </c>
-      <c r="C162" s="41" t="s">
+      <c r="C162" s="46" t="s">
         <v>406</v>
       </c>
       <c r="D162" s="3"/>
@@ -6925,18 +6925,18 @@
       <c r="A163" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="B163" s="40"/>
-      <c r="C163" s="41"/>
+      <c r="B163" s="44"/>
+      <c r="C163" s="46"/>
       <c r="D163" s="3"/>
     </row>
     <row r="164" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B164" s="42" t="s">
+      <c r="B164" s="47" t="s">
         <v>264</v>
       </c>
-      <c r="C164" s="43" t="s">
+      <c r="C164" s="48" t="s">
         <v>265</v>
       </c>
       <c r="D164" s="3"/>
@@ -6945,17 +6945,17 @@
       <c r="A165" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B165" s="42"/>
-      <c r="C165" s="43"/>
+      <c r="B165" s="47"/>
+      <c r="C165" s="48"/>
       <c r="D165" s="3"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A166" s="40" t="s">
+      <c r="A166" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="B166" s="40"/>
-      <c r="C166" s="40"/>
-      <c r="D166" s="40"/>
+      <c r="B166" s="44"/>
+      <c r="C166" s="44"/>
+      <c r="D166" s="44"/>
     </row>
     <row r="167" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A167" s="22" t="s">
@@ -7118,12 +7118,12 @@
       <c r="D181" s="21"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A182" s="39" t="s">
+      <c r="A182" s="45" t="s">
         <v>287</v>
       </c>
-      <c r="B182" s="39"/>
-      <c r="C182" s="39"/>
-      <c r="D182" s="39"/>
+      <c r="B182" s="45"/>
+      <c r="C182" s="45"/>
+      <c r="D182" s="45"/>
     </row>
     <row r="183" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A183" s="22" t="s">
@@ -7137,10 +7137,10 @@
       <c r="A184" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="B184" s="44" t="s">
+      <c r="B184" s="40" t="s">
         <v>301</v>
       </c>
-      <c r="C184" s="46" t="s">
+      <c r="C184" s="42" t="s">
         <v>415</v>
       </c>
       <c r="D184" s="3"/>
@@ -7149,18 +7149,18 @@
       <c r="A185" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="B185" s="45"/>
-      <c r="C185" s="47"/>
+      <c r="B185" s="41"/>
+      <c r="C185" s="43"/>
       <c r="D185" s="3"/>
     </row>
     <row r="186" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="B186" s="44" t="s">
+      <c r="B186" s="40" t="s">
         <v>302</v>
       </c>
-      <c r="C186" s="46" t="s">
+      <c r="C186" s="42" t="s">
         <v>416</v>
       </c>
       <c r="D186" s="3"/>
@@ -7169,18 +7169,18 @@
       <c r="A187" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="B187" s="45"/>
-      <c r="C187" s="47"/>
+      <c r="B187" s="41"/>
+      <c r="C187" s="43"/>
       <c r="D187" s="3"/>
     </row>
     <row r="188" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="B188" s="44" t="s">
+      <c r="B188" s="40" t="s">
         <v>303</v>
       </c>
-      <c r="C188" s="46" t="s">
+      <c r="C188" s="42" t="s">
         <v>417</v>
       </c>
       <c r="D188" s="3"/>
@@ -7189,8 +7189,8 @@
       <c r="A189" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="B189" s="45"/>
-      <c r="C189" s="47"/>
+      <c r="B189" s="41"/>
+      <c r="C189" s="43"/>
       <c r="D189" s="3"/>
     </row>
     <row r="190" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -7266,12 +7266,12 @@
       <c r="D195" s="3"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A196" s="40" t="s">
+      <c r="A196" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="B196" s="40"/>
-      <c r="C196" s="40"/>
-      <c r="D196" s="40"/>
+      <c r="B196" s="44"/>
+      <c r="C196" s="44"/>
+      <c r="D196" s="44"/>
     </row>
     <row r="197" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A197" s="22" t="s">
@@ -7378,12 +7378,12 @@
       <c r="D205" s="3"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A206" s="40" t="s">
+      <c r="A206" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="B206" s="40"/>
-      <c r="C206" s="40"/>
-      <c r="D206" s="40"/>
+      <c r="B206" s="44"/>
+      <c r="C206" s="44"/>
+      <c r="D206" s="44"/>
     </row>
     <row r="207" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A207" s="22" t="s">
@@ -7535,6 +7535,30 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A144:D144"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="B146:B147"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="C155:C156"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="C157:C158"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="C162:C163"/>
+    <mergeCell ref="B164:B165"/>
+    <mergeCell ref="C164:C165"/>
     <mergeCell ref="B188:B189"/>
     <mergeCell ref="C188:C189"/>
     <mergeCell ref="A196:D196"/>
@@ -7545,30 +7569,6 @@
     <mergeCell ref="C184:C185"/>
     <mergeCell ref="B186:B187"/>
     <mergeCell ref="C186:C187"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="C162:C163"/>
-    <mergeCell ref="B164:B165"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="B153:B154"/>
-    <mergeCell ref="C153:C154"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="C155:C156"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="C157:C158"/>
-    <mergeCell ref="B146:B147"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="B148:B149"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="B150:B151"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="A144:D144"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="A116:D116"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
